--- a/input/CNV analysis.xlsx
+++ b/input/CNV analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\pathologie\PRL\Groep-Brosens\2. Anna Vera\15. ovaryNET\Ovary\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\pathologie\PRL\Groep-Brosens\2. Anna Vera\1. Projecten\Actuele projecten\15. ovaryNET\CNV data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043429F4-3CD8-4D72-8548-BE0B490630D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA0AF8B-7036-4C7D-B3E6-E87E392BE9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="205">
   <si>
     <t>arrayId</t>
   </si>
@@ -402,6 +411,12 @@
     <t>ovary</t>
   </si>
   <si>
+    <t>primary_teratoma</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
     <t>metastasis_midgut</t>
   </si>
   <si>
@@ -420,6 +435,9 @@
     <t>rectumNET</t>
   </si>
   <si>
+    <t>metastasis</t>
+  </si>
+  <si>
     <t>partial loss 16q</t>
   </si>
   <si>
@@ -471,26 +489,176 @@
     <t>normal/gain?</t>
   </si>
   <si>
-    <t>primary_ovary</t>
-  </si>
-  <si>
-    <t>primary_ileal</t>
-  </si>
-  <si>
-    <t>primary_pancreas</t>
-  </si>
-  <si>
-    <t>primary_rectum</t>
-  </si>
-  <si>
-    <t>primary_ovary_teratoma</t>
+    <t>207558880059_R03C01</t>
+  </si>
+  <si>
+    <t>207558880059_R04C01</t>
+  </si>
+  <si>
+    <t>UMCU_ilealNET6</t>
+  </si>
+  <si>
+    <t>207558880059_R05C01</t>
+  </si>
+  <si>
+    <t>UMCU_ilealNET7</t>
+  </si>
+  <si>
+    <t>207558880059_R06C01</t>
+  </si>
+  <si>
+    <t>UMCU_ilealNET8</t>
+  </si>
+  <si>
+    <t>207131900070_R01C01</t>
+  </si>
+  <si>
+    <t>UMCU_rectumNET4</t>
+  </si>
+  <si>
+    <t>207131890082_R03C01</t>
+  </si>
+  <si>
+    <t>UMCU_panNET17</t>
+  </si>
+  <si>
+    <t>207131890113_R02C01</t>
+  </si>
+  <si>
+    <t>UMCU_panNET18</t>
+  </si>
+  <si>
+    <t>207558890053_R06C01</t>
+  </si>
+  <si>
+    <t>UMCU_rectumNET5</t>
+  </si>
+  <si>
+    <t>207558890061_R01C01</t>
+  </si>
+  <si>
+    <t>UMCU_panNET19</t>
+  </si>
+  <si>
+    <t>207558890081_R02C01</t>
+  </si>
+  <si>
+    <t>UMCU_panNET20</t>
+  </si>
+  <si>
+    <t>207558880018_R04C01</t>
+  </si>
+  <si>
+    <t>UMCU_panNET21</t>
+  </si>
+  <si>
+    <t>207558880081_R05C01</t>
+  </si>
+  <si>
+    <t>UMCU_panNET22</t>
+  </si>
+  <si>
+    <t>207558880081_R02C01</t>
+  </si>
+  <si>
+    <t>UMCU_panNET23</t>
+  </si>
+  <si>
+    <t>207558890062_R01C01</t>
+  </si>
+  <si>
+    <t>UMCU_rectumNET6</t>
+  </si>
+  <si>
+    <t>207558880049_R03C01</t>
+  </si>
+  <si>
+    <t>UMCU_ilealNET9</t>
+  </si>
+  <si>
+    <t>207558880049_R04C01</t>
+  </si>
+  <si>
+    <t>UMCU_ilealNET10</t>
+  </si>
+  <si>
+    <t>207558880069_R03C01</t>
+  </si>
+  <si>
+    <t>UMCU_ilealNET11</t>
+  </si>
+  <si>
+    <t>207558880054_R04C01</t>
+  </si>
+  <si>
+    <t>UMCU_rectumNET7</t>
+  </si>
+  <si>
+    <t>207558880038_R06C01</t>
+  </si>
+  <si>
+    <t>UMCU_rectumNET8</t>
+  </si>
+  <si>
+    <t>207558880038_R08C01</t>
+  </si>
+  <si>
+    <t>UMCU_rectumNET9</t>
+  </si>
+  <si>
+    <t>207558880038_R07C01</t>
+  </si>
+  <si>
+    <t>UMCU_rectumNET10</t>
+  </si>
+  <si>
+    <t>partial loss; 11q</t>
+  </si>
+  <si>
+    <t>partial loss; 10q; PTEN</t>
+  </si>
+  <si>
+    <t>partial loss; 3q</t>
+  </si>
+  <si>
+    <t>slechte kwaliteit!!!</t>
+  </si>
+  <si>
+    <t>partial gain; 17q</t>
+  </si>
+  <si>
+    <t>partial loss; 8p</t>
+  </si>
+  <si>
+    <t>partial gain; 1q</t>
+  </si>
+  <si>
+    <t>207558880069_R04C01</t>
+  </si>
+  <si>
+    <t>207558880069_R05C01</t>
+  </si>
+  <si>
+    <t>partial loss; part of 3q</t>
+  </si>
+  <si>
+    <t>Ovary-009_2</t>
+  </si>
+  <si>
+    <t>Ovary-004_2</t>
+  </si>
+  <si>
+    <t>partial gain (4q)</t>
+  </si>
+  <si>
+    <t>partial loss; deel van 11q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +700,13 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -579,7 +754,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -590,6 +765,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -598,7 +774,207 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -919,11 +1295,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,16 +1397,16 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
@@ -1083,8 +1459,8 @@
       <c r="U2" t="s">
         <v>106</v>
       </c>
-      <c r="V2" t="s">
-        <v>106</v>
+      <c r="V2" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="W2" t="s">
         <v>106</v>
@@ -1098,25 +1474,28 @@
       <c r="Z2" t="s">
         <v>106</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>108</v>
+      <c r="AA2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>106</v>
       </c>
       <c r="AC2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
         <v>106</v>
@@ -1127,11 +1506,11 @@
       <c r="G3" t="s">
         <v>106</v>
       </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" t="s">
-        <v>106</v>
+      <c r="H3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -1157,8 +1536,8 @@
       <c r="Q3" t="s">
         <v>106</v>
       </c>
-      <c r="R3" t="s">
-        <v>106</v>
+      <c r="R3" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="S3" t="s">
         <v>106</v>
@@ -1175,8 +1554,8 @@
       <c r="W3" t="s">
         <v>106</v>
       </c>
-      <c r="X3" t="s">
-        <v>106</v>
+      <c r="X3" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="Y3" t="s">
         <v>106</v>
@@ -1185,7 +1564,7 @@
         <v>106</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AC3" t="s">
         <v>112</v>
@@ -1193,16 +1572,16 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
         <v>106</v>
@@ -1249,20 +1628,20 @@
       <c r="S4" t="s">
         <v>106</v>
       </c>
-      <c r="T4" t="s">
-        <v>106</v>
+      <c r="T4" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="U4" t="s">
         <v>106</v>
       </c>
-      <c r="V4" t="s">
-        <v>106</v>
+      <c r="V4" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="W4" t="s">
         <v>106</v>
       </c>
-      <c r="X4" t="s">
-        <v>106</v>
+      <c r="X4" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="Y4" t="s">
         <v>106</v>
@@ -1271,6 +1650,9 @@
         <v>106</v>
       </c>
       <c r="AA4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB4" t="s">
         <v>106</v>
       </c>
       <c r="AC4" t="s">
@@ -1279,16 +1661,16 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
         <v>106</v>
@@ -1356,28 +1738,31 @@
       <c r="Z5" t="s">
         <v>106</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>111</v>
+      <c r="AA5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="AC5" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" t="s">
-        <v>106</v>
+        <v>125</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>106</v>
@@ -1394,8 +1779,8 @@
       <c r="J6" t="s">
         <v>106</v>
       </c>
-      <c r="K6" t="s">
-        <v>106</v>
+      <c r="K6" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="L6" t="s">
         <v>106</v>
@@ -1406,23 +1791,23 @@
       <c r="N6" t="s">
         <v>106</v>
       </c>
-      <c r="O6" t="s">
-        <v>106</v>
+      <c r="O6" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="P6" t="s">
         <v>106</v>
       </c>
-      <c r="Q6" t="s">
-        <v>106</v>
+      <c r="Q6" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="R6" t="s">
         <v>106</v>
       </c>
-      <c r="S6" t="s">
-        <v>106</v>
-      </c>
-      <c r="T6" t="s">
-        <v>106</v>
+      <c r="S6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="U6" t="s">
         <v>106</v>
@@ -1436,31 +1821,28 @@
       <c r="X6" t="s">
         <v>106</v>
       </c>
-      <c r="Y6" t="s">
-        <v>106</v>
+      <c r="Y6" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="Z6" t="s">
         <v>106</v>
       </c>
-      <c r="AA6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>112</v>
+      <c r="AA6" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
         <v>106</v>
@@ -1486,8 +1868,8 @@
       <c r="L7" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>107</v>
+      <c r="M7" t="s">
+        <v>106</v>
       </c>
       <c r="N7" t="s">
         <v>106</v>
@@ -1527,26 +1909,20 @@
       </c>
       <c r="Z7" t="s">
         <v>106</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
         <v>106</v>
@@ -1572,8 +1948,8 @@
       <c r="L8" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>107</v>
+      <c r="M8" t="s">
+        <v>106</v>
       </c>
       <c r="N8" t="s">
         <v>106</v>
@@ -1587,8 +1963,8 @@
       <c r="Q8" t="s">
         <v>106</v>
       </c>
-      <c r="R8" t="s">
-        <v>106</v>
+      <c r="R8" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="S8" t="s">
         <v>106</v>
@@ -1599,8 +1975,8 @@
       <c r="U8" t="s">
         <v>106</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>107</v>
+      <c r="V8" t="s">
+        <v>106</v>
       </c>
       <c r="W8" t="s">
         <v>106</v>
@@ -1613,26 +1989,17 @@
       </c>
       <c r="Z8" t="s">
         <v>106</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
         <v>106</v>
@@ -1643,11 +2010,11 @@
       <c r="G9" t="s">
         <v>106</v>
       </c>
-      <c r="H9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" t="s">
-        <v>106</v>
+      <c r="H9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J9" t="s">
         <v>106</v>
@@ -1673,8 +2040,8 @@
       <c r="Q9" t="s">
         <v>106</v>
       </c>
-      <c r="R9" t="s">
-        <v>106</v>
+      <c r="R9" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="S9" t="s">
         <v>106</v>
@@ -1699,26 +2066,17 @@
       </c>
       <c r="Z9" t="s">
         <v>106</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
         <v>106</v>
@@ -1771,8 +2129,8 @@
       <c r="U10" t="s">
         <v>106</v>
       </c>
-      <c r="V10" t="s">
-        <v>106</v>
+      <c r="V10" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="W10" t="s">
         <v>106</v>
@@ -1785,38 +2143,29 @@
       </c>
       <c r="Z10" t="s">
         <v>106</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>116</v>
+      <c r="H11" t="s">
+        <v>106</v>
       </c>
       <c r="I11" t="s">
         <v>106</v>
@@ -1836,8 +2185,8 @@
       <c r="N11" t="s">
         <v>106</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>115</v>
+      <c r="O11" t="s">
+        <v>106</v>
       </c>
       <c r="P11" t="s">
         <v>106</v>
@@ -1851,14 +2200,14 @@
       <c r="S11" t="s">
         <v>106</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>107</v>
+      <c r="T11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U11" t="s">
+        <v>106</v>
+      </c>
+      <c r="V11" t="s">
+        <v>106</v>
       </c>
       <c r="W11" t="s">
         <v>106</v>
@@ -1871,26 +2220,17 @@
       </c>
       <c r="Z11" t="s">
         <v>106</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
         <v>106</v>
@@ -1901,17 +2241,17 @@
       <c r="G12" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>108</v>
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
       </c>
       <c r="J12" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>108</v>
+      <c r="K12" t="s">
+        <v>106</v>
       </c>
       <c r="L12" t="s">
         <v>106</v>
@@ -1922,14 +2262,14 @@
       <c r="N12" t="s">
         <v>106</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>107</v>
+      <c r="O12" t="s">
+        <v>106</v>
       </c>
       <c r="P12" t="s">
         <v>106</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>107</v>
+      <c r="Q12" t="s">
+        <v>106</v>
       </c>
       <c r="R12" t="s">
         <v>106</v>
@@ -1943,52 +2283,43 @@
       <c r="U12" t="s">
         <v>106</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>107</v>
+      <c r="V12" t="s">
+        <v>106</v>
       </c>
       <c r="W12" t="s">
         <v>106</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>108</v>
+      <c r="X12" t="s">
+        <v>106</v>
       </c>
       <c r="Y12" t="s">
         <v>106</v>
       </c>
       <c r="Z12" t="s">
         <v>106</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>114</v>
+      <c r="F13" t="s">
+        <v>106</v>
       </c>
       <c r="G13" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>108</v>
+      <c r="H13" t="s">
+        <v>106</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>108</v>
@@ -1997,13 +2328,13 @@
         <v>106</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s">
         <v>106</v>
       </c>
-      <c r="M13" t="s">
-        <v>106</v>
+      <c r="M13" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="N13" t="s">
         <v>106</v>
@@ -2014,8 +2345,8 @@
       <c r="P13" t="s">
         <v>106</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>120</v>
+      <c r="Q13" t="s">
+        <v>106</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>108</v>
@@ -2043,20 +2374,14 @@
       </c>
       <c r="Z13" t="s">
         <v>106</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>123</v>
@@ -2130,25 +2455,25 @@
       <c r="Z14" t="s">
         <v>106</v>
       </c>
-      <c r="AA14" t="s">
-        <v>106</v>
+      <c r="AA14" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="AC14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
         <v>106</v>
@@ -2159,17 +2484,17 @@
       <c r="G15" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>108</v>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
       </c>
       <c r="J15" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>108</v>
+      <c r="K15" t="s">
+        <v>106</v>
       </c>
       <c r="L15" t="s">
         <v>106</v>
@@ -2177,8 +2502,8 @@
       <c r="M15" t="s">
         <v>106</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>108</v>
+      <c r="N15" t="s">
+        <v>106</v>
       </c>
       <c r="O15" t="s">
         <v>106</v>
@@ -2186,11 +2511,11 @@
       <c r="P15" t="s">
         <v>106</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>108</v>
+      <c r="Q15" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15" t="s">
+        <v>106</v>
       </c>
       <c r="S15" t="s">
         <v>106</v>
@@ -2201,8 +2526,8 @@
       <c r="U15" t="s">
         <v>106</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>107</v>
+      <c r="V15" t="s">
+        <v>106</v>
       </c>
       <c r="W15" t="s">
         <v>106</v>
@@ -2218,20 +2543,23 @@
       </c>
       <c r="AA15" s="2" t="s">
         <v>111</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
         <v>106</v>
@@ -2266,8 +2594,8 @@
       <c r="O16" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>108</v>
+      <c r="P16" t="s">
+        <v>106</v>
       </c>
       <c r="Q16" t="s">
         <v>106</v>
@@ -2299,25 +2627,25 @@
       <c r="Z16" t="s">
         <v>106</v>
       </c>
-      <c r="AA16" s="1" t="s">
-        <v>108</v>
+      <c r="AA16" t="s">
+        <v>106</v>
       </c>
       <c r="AC16" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
         <v>106</v>
@@ -2385,11 +2713,8 @@
       <c r="Z17" t="s">
         <v>106</v>
       </c>
-      <c r="AA17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>106</v>
+      <c r="AA17" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="AC17" t="s">
         <v>112</v>
@@ -2397,16 +2722,16 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
         <v>106</v>
@@ -2459,8 +2784,8 @@
       <c r="U18" t="s">
         <v>106</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>107</v>
+      <c r="V18" t="s">
+        <v>106</v>
       </c>
       <c r="W18" t="s">
         <v>106</v>
@@ -2475,9 +2800,6 @@
         <v>106</v>
       </c>
       <c r="AA18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB18" t="s">
         <v>106</v>
       </c>
       <c r="AC18" t="s">
@@ -2486,16 +2808,16 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
         <v>106</v>
@@ -2506,11 +2828,11 @@
       <c r="G19" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>108</v>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>106</v>
       </c>
       <c r="J19" t="s">
         <v>106</v>
@@ -2521,8 +2843,8 @@
       <c r="L19" t="s">
         <v>106</v>
       </c>
-      <c r="M19" t="s">
-        <v>106</v>
+      <c r="M19" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="N19" t="s">
         <v>106</v>
@@ -2536,8 +2858,8 @@
       <c r="Q19" t="s">
         <v>106</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>108</v>
+      <c r="R19" t="s">
+        <v>106</v>
       </c>
       <c r="S19" t="s">
         <v>106</v>
@@ -2548,14 +2870,14 @@
       <c r="U19" t="s">
         <v>106</v>
       </c>
-      <c r="V19" t="s">
-        <v>106</v>
+      <c r="V19" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="W19" t="s">
         <v>106</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>108</v>
+      <c r="X19" t="s">
+        <v>106</v>
       </c>
       <c r="Y19" t="s">
         <v>106</v>
@@ -2563,8 +2885,8 @@
       <c r="Z19" t="s">
         <v>106</v>
       </c>
-      <c r="AA19" s="2" t="s">
-        <v>107</v>
+      <c r="AA19" t="s">
+        <v>106</v>
       </c>
       <c r="AC19" t="s">
         <v>112</v>
@@ -2572,16 +2894,16 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
         <v>106</v>
@@ -2607,8 +2929,8 @@
       <c r="L20" t="s">
         <v>106</v>
       </c>
-      <c r="M20" t="s">
-        <v>106</v>
+      <c r="M20" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="N20" t="s">
         <v>106</v>
@@ -2628,8 +2950,8 @@
       <c r="S20" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="2" t="s">
-        <v>130</v>
+      <c r="T20" t="s">
+        <v>106</v>
       </c>
       <c r="U20" t="s">
         <v>106</v>
@@ -2640,8 +2962,8 @@
       <c r="W20" t="s">
         <v>106</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>131</v>
+      <c r="X20" t="s">
+        <v>106</v>
       </c>
       <c r="Y20" t="s">
         <v>106</v>
@@ -2650,9 +2972,6 @@
         <v>106</v>
       </c>
       <c r="AA20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB20" t="s">
         <v>106</v>
       </c>
       <c r="AC20" t="s">
@@ -2661,16 +2980,16 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
         <v>106</v>
@@ -2723,8 +3042,8 @@
       <c r="U21" t="s">
         <v>106</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>107</v>
+      <c r="V21" t="s">
+        <v>106</v>
       </c>
       <c r="W21" t="s">
         <v>106</v>
@@ -2738,28 +3057,25 @@
       <c r="Z21" t="s">
         <v>106</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>107</v>
+      <c r="AA21" t="s">
+        <v>106</v>
       </c>
       <c r="AC21" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
         <v>106</v>
@@ -2791,47 +3107,44 @@
       <c r="N22" t="s">
         <v>106</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>106</v>
+      </c>
+      <c r="R22" t="s">
+        <v>106</v>
+      </c>
+      <c r="S22" t="s">
+        <v>106</v>
+      </c>
+      <c r="T22" t="s">
+        <v>106</v>
+      </c>
+      <c r="U22" t="s">
+        <v>106</v>
+      </c>
+      <c r="V22" t="s">
+        <v>106</v>
+      </c>
+      <c r="W22" t="s">
+        <v>106</v>
+      </c>
+      <c r="X22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA22" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="P22" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>106</v>
-      </c>
-      <c r="R22" t="s">
-        <v>106</v>
-      </c>
-      <c r="S22" t="s">
-        <v>106</v>
-      </c>
-      <c r="T22" t="s">
-        <v>106</v>
-      </c>
-      <c r="U22" t="s">
-        <v>106</v>
-      </c>
-      <c r="V22" t="s">
-        <v>106</v>
-      </c>
-      <c r="W22" t="s">
-        <v>106</v>
-      </c>
-      <c r="X22" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>106</v>
       </c>
       <c r="AC22" t="s">
         <v>112</v>
@@ -2839,28 +3152,28 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
         <v>106</v>
       </c>
-      <c r="F23" t="s">
-        <v>106</v>
+      <c r="F23" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="G23" t="s">
         <v>106</v>
       </c>
-      <c r="H23" t="s">
-        <v>106</v>
+      <c r="H23" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I23" t="s">
         <v>106</v>
@@ -2880,8 +3193,8 @@
       <c r="N23" t="s">
         <v>106</v>
       </c>
-      <c r="O23" t="s">
-        <v>106</v>
+      <c r="O23" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="P23" t="s">
         <v>106</v>
@@ -2895,14 +3208,14 @@
       <c r="S23" t="s">
         <v>106</v>
       </c>
-      <c r="T23" t="s">
-        <v>106</v>
-      </c>
-      <c r="U23" t="s">
-        <v>106</v>
-      </c>
-      <c r="V23" t="s">
-        <v>106</v>
+      <c r="T23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="W23" t="s">
         <v>106</v>
@@ -2913,31 +3226,28 @@
       <c r="Y23" t="s">
         <v>106</v>
       </c>
-      <c r="Z23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>107</v>
+      <c r="Z23" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>106</v>
       </c>
       <c r="AC23" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
         <v>106</v>
@@ -2963,23 +3273,23 @@
       <c r="L24" t="s">
         <v>106</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>108</v>
+      <c r="M24" t="s">
+        <v>106</v>
       </c>
       <c r="N24" t="s">
         <v>106</v>
       </c>
-      <c r="O24" t="s">
-        <v>106</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>108</v>
+      <c r="O24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24" t="s">
+        <v>106</v>
       </c>
       <c r="S24" t="s">
         <v>106</v>
@@ -2987,14 +3297,14 @@
       <c r="T24" t="s">
         <v>106</v>
       </c>
-      <c r="U24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>108</v>
+      <c r="U24" t="s">
+        <v>106</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W24" t="s">
+        <v>106</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>108</v>
@@ -3008,46 +3318,43 @@
       <c r="AA24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AB24" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="AC24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
         <v>106</v>
       </c>
-      <c r="F25" t="s">
-        <v>106</v>
+      <c r="F25" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="G25" t="s">
         <v>106</v>
       </c>
-      <c r="H25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" t="s">
-        <v>106</v>
+      <c r="H25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J25" t="s">
         <v>106</v>
       </c>
-      <c r="K25" t="s">
-        <v>106</v>
+      <c r="K25" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="L25" t="s">
         <v>106</v>
@@ -3064,11 +3371,11 @@
       <c r="P25" t="s">
         <v>106</v>
       </c>
-      <c r="Q25" t="s">
-        <v>106</v>
-      </c>
-      <c r="R25" t="s">
-        <v>106</v>
+      <c r="Q25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="S25" t="s">
         <v>106</v>
@@ -3085,8 +3392,8 @@
       <c r="W25" t="s">
         <v>106</v>
       </c>
-      <c r="X25" t="s">
-        <v>106</v>
+      <c r="X25" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="Y25" t="s">
         <v>106</v>
@@ -3094,28 +3401,25 @@
       <c r="Z25" t="s">
         <v>106</v>
       </c>
-      <c r="AA25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>107</v>
+      <c r="AA25" t="s">
+        <v>106</v>
       </c>
       <c r="AC25" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
         <v>106</v>
@@ -3187,21 +3491,21 @@
         <v>106</v>
       </c>
       <c r="AC26" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
         <v>106</v>
@@ -3227,20 +3531,20 @@
       <c r="L27" t="s">
         <v>106</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N27" t="s">
-        <v>106</v>
+      <c r="M27" t="s">
+        <v>106</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="O27" t="s">
         <v>106</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>108</v>
+      <c r="P27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>108</v>
@@ -3251,17 +3555,17 @@
       <c r="T27" t="s">
         <v>106</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>108</v>
+      <c r="U27" t="s">
+        <v>106</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W27" t="s">
+        <v>106</v>
+      </c>
+      <c r="X27" t="s">
+        <v>106</v>
       </c>
       <c r="Y27" t="s">
         <v>106</v>
@@ -3269,25 +3573,22 @@
       <c r="Z27" t="s">
         <v>106</v>
       </c>
-      <c r="AA27" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>112</v>
+      <c r="AA27" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
         <v>106</v>
@@ -3301,14 +3602,14 @@
       <c r="H28" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>108</v>
+      <c r="I28" t="s">
+        <v>106</v>
       </c>
       <c r="J28" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>108</v>
+      <c r="K28" t="s">
+        <v>106</v>
       </c>
       <c r="L28" t="s">
         <v>106</v>
@@ -3322,8 +3623,8 @@
       <c r="O28" t="s">
         <v>106</v>
       </c>
-      <c r="P28" t="s">
-        <v>106</v>
+      <c r="P28" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="Q28" t="s">
         <v>106</v>
@@ -3331,8 +3632,8 @@
       <c r="R28" t="s">
         <v>106</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>108</v>
+      <c r="S28" t="s">
+        <v>106</v>
       </c>
       <c r="T28" t="s">
         <v>106</v>
@@ -3340,8 +3641,8 @@
       <c r="U28" t="s">
         <v>106</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>108</v>
+      <c r="V28" t="s">
+        <v>106</v>
       </c>
       <c r="W28" t="s">
         <v>106</v>
@@ -3356,22 +3657,25 @@
         <v>106</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
         <v>128</v>
       </c>
-      <c r="D29" t="s">
-        <v>149</v>
-      </c>
       <c r="E29" t="s">
         <v>106</v>
       </c>
@@ -3381,23 +3685,23 @@
       <c r="G29" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>108</v>
+      <c r="H29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" t="s">
+        <v>106</v>
       </c>
       <c r="J29" t="s">
         <v>106</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>108</v>
+      <c r="K29" t="s">
+        <v>106</v>
       </c>
       <c r="L29" t="s">
         <v>106</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>133</v>
+      <c r="M29" t="s">
+        <v>106</v>
       </c>
       <c r="N29" t="s">
         <v>106</v>
@@ -3408,11 +3712,11 @@
       <c r="P29" t="s">
         <v>106</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>108</v>
+      <c r="Q29" t="s">
+        <v>106</v>
+      </c>
+      <c r="R29" t="s">
+        <v>106</v>
       </c>
       <c r="S29" t="s">
         <v>106</v>
@@ -3423,14 +3727,14 @@
       <c r="U29" t="s">
         <v>106</v>
       </c>
-      <c r="V29" t="s">
-        <v>106</v>
+      <c r="V29" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="W29" t="s">
         <v>106</v>
       </c>
-      <c r="X29" s="1" t="s">
-        <v>108</v>
+      <c r="X29" t="s">
+        <v>106</v>
       </c>
       <c r="Y29" t="s">
         <v>106</v>
@@ -3441,22 +3745,25 @@
       <c r="AA29" t="s">
         <v>106</v>
       </c>
-      <c r="AB29" s="2" t="s">
-        <v>107</v>
+      <c r="AB29" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
         <v>106</v>
@@ -3470,79 +3777,76 @@
       <c r="H30" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>133</v>
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="N30" t="s">
         <v>106</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>138</v>
+      <c r="O30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R30" t="s">
+        <v>106</v>
+      </c>
+      <c r="S30" t="s">
+        <v>106</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>108</v>
+        <v>142</v>
+      </c>
+      <c r="U30" t="s">
+        <v>106</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="W30" s="1" t="s">
-        <v>108</v>
+      <c r="W30" t="s">
+        <v>106</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Y30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>108</v>
+      <c r="Y30" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>106</v>
       </c>
       <c r="AA30" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AC30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
         <v>106</v>
@@ -3550,8 +3854,8 @@
       <c r="F31" t="s">
         <v>106</v>
       </c>
-      <c r="G31" t="s">
-        <v>106</v>
+      <c r="G31" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="H31" t="s">
         <v>106</v>
@@ -3609,26 +3913,17 @@
       </c>
       <c r="Z31" t="s">
         <v>106</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>31</v>
+      <c r="A32" t="s">
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
         <v>106</v>
@@ -3636,94 +3931,88 @@
       <c r="F32" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" t="s">
+        <v>106</v>
+      </c>
+      <c r="L32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32" t="s">
+        <v>106</v>
+      </c>
+      <c r="N32" t="s">
+        <v>106</v>
+      </c>
+      <c r="O32" t="s">
+        <v>106</v>
+      </c>
+      <c r="P32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>106</v>
+      </c>
+      <c r="R32" t="s">
+        <v>106</v>
+      </c>
+      <c r="S32" t="s">
+        <v>106</v>
+      </c>
+      <c r="T32" t="s">
+        <v>106</v>
+      </c>
+      <c r="U32" t="s">
+        <v>106</v>
+      </c>
+      <c r="V32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H32" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" t="s">
-        <v>106</v>
-      </c>
-      <c r="J32" t="s">
-        <v>106</v>
-      </c>
-      <c r="K32" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" t="s">
-        <v>106</v>
-      </c>
-      <c r="M32" t="s">
-        <v>106</v>
-      </c>
-      <c r="N32" t="s">
-        <v>106</v>
-      </c>
-      <c r="O32" t="s">
-        <v>106</v>
-      </c>
-      <c r="P32" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>106</v>
-      </c>
-      <c r="R32" t="s">
-        <v>106</v>
-      </c>
-      <c r="S32" t="s">
-        <v>106</v>
-      </c>
-      <c r="T32" t="s">
-        <v>106</v>
-      </c>
-      <c r="U32" t="s">
-        <v>106</v>
-      </c>
-      <c r="V32" t="s">
-        <v>106</v>
-      </c>
       <c r="W32" t="s">
         <v>106</v>
       </c>
-      <c r="X32" s="2" t="s">
-        <v>107</v>
+      <c r="X32" t="s">
+        <v>106</v>
       </c>
       <c r="Y32" t="s">
         <v>106</v>
       </c>
       <c r="Z32" t="s">
         <v>106</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
       </c>
       <c r="F33" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>141</v>
+      <c r="G33" t="s">
+        <v>106</v>
       </c>
       <c r="H33" t="s">
         <v>106</v>
@@ -3740,14 +4029,14 @@
       <c r="L33" t="s">
         <v>106</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>142</v>
+      <c r="M33" t="s">
+        <v>106</v>
       </c>
       <c r="N33" t="s">
         <v>106</v>
       </c>
-      <c r="O33" t="s">
-        <v>106</v>
+      <c r="O33" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="P33" t="s">
         <v>106</v>
@@ -3782,25 +4071,28 @@
       <c r="Z33" t="s">
         <v>106</v>
       </c>
-      <c r="AA33" s="1" t="s">
-        <v>108</v>
+      <c r="AA33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>106</v>
       </c>
       <c r="AC33" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
         <v>106</v>
@@ -3811,8 +4103,8 @@
       <c r="G34" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>108</v>
+      <c r="H34" t="s">
+        <v>106</v>
       </c>
       <c r="I34" t="s">
         <v>106</v>
@@ -3820,14 +4112,14 @@
       <c r="J34" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>108</v>
+      <c r="K34" t="s">
+        <v>106</v>
       </c>
       <c r="L34" t="s">
         <v>106</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>108</v>
+      <c r="M34" t="s">
+        <v>106</v>
       </c>
       <c r="N34" t="s">
         <v>106</v>
@@ -3835,14 +4127,14 @@
       <c r="O34" t="s">
         <v>106</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>108</v>
+      <c r="P34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>106</v>
+      </c>
+      <c r="R34" t="s">
+        <v>106</v>
       </c>
       <c r="S34" t="s">
         <v>106</v>
@@ -3850,43 +4142,46 @@
       <c r="T34" t="s">
         <v>106</v>
       </c>
-      <c r="U34" s="1" t="s">
-        <v>108</v>
+      <c r="U34" t="s">
+        <v>106</v>
       </c>
       <c r="V34" t="s">
         <v>106</v>
       </c>
-      <c r="W34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>108</v>
+      <c r="W34" t="s">
+        <v>106</v>
+      </c>
+      <c r="X34" t="s">
+        <v>106</v>
       </c>
       <c r="Y34" t="s">
         <v>106</v>
       </c>
-      <c r="Z34" t="s">
-        <v>106</v>
+      <c r="Z34" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="AB34" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="AC34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
         <v>106</v>
@@ -3897,23 +4192,23 @@
       <c r="G35" t="s">
         <v>106</v>
       </c>
-      <c r="H35" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" t="s">
-        <v>106</v>
+      <c r="H35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J35" t="s">
         <v>106</v>
       </c>
-      <c r="K35" t="s">
-        <v>106</v>
+      <c r="K35" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="L35" t="s">
         <v>106</v>
       </c>
-      <c r="M35" t="s">
-        <v>106</v>
+      <c r="M35" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="N35" t="s">
         <v>106</v>
@@ -3921,14 +4216,14 @@
       <c r="O35" t="s">
         <v>106</v>
       </c>
-      <c r="P35" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>106</v>
-      </c>
-      <c r="R35" t="s">
-        <v>106</v>
+      <c r="P35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="S35" t="s">
         <v>106</v>
@@ -3936,17 +4231,17 @@
       <c r="T35" t="s">
         <v>106</v>
       </c>
-      <c r="U35" t="s">
-        <v>106</v>
-      </c>
-      <c r="V35" t="s">
-        <v>106</v>
-      </c>
-      <c r="W35" t="s">
-        <v>106</v>
-      </c>
-      <c r="X35" t="s">
-        <v>106</v>
+      <c r="U35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="Y35" t="s">
         <v>106</v>
@@ -3954,49 +4249,55 @@
       <c r="Z35" t="s">
         <v>106</v>
       </c>
-      <c r="AA35" t="s">
-        <v>106</v>
+      <c r="AA35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
+      <c r="A36" t="s">
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>108</v>
+      <c r="F36" t="s">
+        <v>106</v>
       </c>
       <c r="G36" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>108</v>
+      <c r="H36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" t="s">
+        <v>106</v>
       </c>
       <c r="J36" t="s">
         <v>106</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>108</v>
+      <c r="K36" t="s">
+        <v>106</v>
+      </c>
+      <c r="L36" t="s">
+        <v>106</v>
+      </c>
+      <c r="M36" t="s">
+        <v>106</v>
       </c>
       <c r="N36" t="s">
         <v>106</v>
@@ -4004,14 +4305,14 @@
       <c r="O36" t="s">
         <v>106</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>108</v>
+      <c r="P36" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>106</v>
+      </c>
+      <c r="R36" t="s">
+        <v>106</v>
       </c>
       <c r="S36" t="s">
         <v>106</v>
@@ -4019,40 +4320,46 @@
       <c r="T36" t="s">
         <v>106</v>
       </c>
-      <c r="U36" s="1" t="s">
-        <v>108</v>
+      <c r="U36" t="s">
+        <v>106</v>
       </c>
       <c r="V36" t="s">
         <v>106</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>108</v>
+      <c r="W36" t="s">
+        <v>106</v>
+      </c>
+      <c r="X36" t="s">
+        <v>106</v>
       </c>
       <c r="Y36" t="s">
         <v>106</v>
       </c>
-      <c r="Z36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>106</v>
+      <c r="Z36" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
         <v>106</v>
@@ -4063,56 +4370,56 @@
       <c r="G37" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>108</v>
+      <c r="H37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
       </c>
       <c r="J37" t="s">
         <v>106</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>108</v>
+      <c r="K37" t="s">
+        <v>106</v>
       </c>
       <c r="L37" t="s">
         <v>106</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>133</v>
+      <c r="M37" t="s">
+        <v>106</v>
       </c>
       <c r="N37" t="s">
         <v>106</v>
       </c>
-      <c r="O37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>108</v>
+      <c r="O37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P37" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>106</v>
+      </c>
+      <c r="R37" t="s">
+        <v>106</v>
+      </c>
+      <c r="S37" t="s">
+        <v>106</v>
       </c>
       <c r="T37" t="s">
         <v>106</v>
       </c>
-      <c r="U37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>108</v>
+      <c r="U37" t="s">
+        <v>106</v>
+      </c>
+      <c r="V37" t="s">
+        <v>106</v>
+      </c>
+      <c r="W37" t="s">
+        <v>106</v>
+      </c>
+      <c r="X37" t="s">
+        <v>106</v>
       </c>
       <c r="Y37" t="s">
         <v>106</v>
@@ -4120,22 +4427,25 @@
       <c r="Z37" t="s">
         <v>106</v>
       </c>
-      <c r="AA37" s="1" t="s">
-        <v>108</v>
+      <c r="AA37" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
         <v>106</v>
@@ -4147,7 +4457,7 @@
         <v>106</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>108</v>
@@ -4158,11 +4468,11 @@
       <c r="K38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>108</v>
+      <c r="L38" t="s">
+        <v>106</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="N38" t="s">
         <v>106</v>
@@ -4171,7 +4481,7 @@
         <v>106</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>108</v>
@@ -4197,28 +4507,31 @@
       <c r="X38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Y38" s="1" t="s">
-        <v>108</v>
+      <c r="Y38" t="s">
+        <v>106</v>
       </c>
       <c r="Z38" t="s">
         <v>106</v>
       </c>
       <c r="AA38" t="s">
-        <v>146</v>
+        <v>106</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
         <v>106</v>
@@ -4232,14 +4545,14 @@
       <c r="H39" t="s">
         <v>106</v>
       </c>
-      <c r="I39" t="s">
-        <v>106</v>
+      <c r="I39" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J39" t="s">
         <v>106</v>
       </c>
-      <c r="K39" t="s">
-        <v>106</v>
+      <c r="K39" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="L39" t="s">
         <v>106</v>
@@ -4262,8 +4575,8 @@
       <c r="R39" t="s">
         <v>106</v>
       </c>
-      <c r="S39" t="s">
-        <v>106</v>
+      <c r="S39" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="T39" t="s">
         <v>106</v>
@@ -4271,8 +4584,8 @@
       <c r="U39" t="s">
         <v>106</v>
       </c>
-      <c r="V39" t="s">
-        <v>106</v>
+      <c r="V39" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="W39" t="s">
         <v>106</v>
@@ -4286,22 +4599,22 @@
       <c r="Z39" t="s">
         <v>106</v>
       </c>
-      <c r="AA39" t="s">
-        <v>106</v>
+      <c r="AA39" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
         <v>106</v>
@@ -4312,89 +4625,92 @@
       <c r="G40" t="s">
         <v>106</v>
       </c>
-      <c r="H40" t="s">
-        <v>106</v>
-      </c>
-      <c r="I40" t="s">
-        <v>106</v>
+      <c r="H40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J40" t="s">
         <v>106</v>
       </c>
-      <c r="K40" t="s">
-        <v>106</v>
+      <c r="K40" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="L40" t="s">
         <v>106</v>
       </c>
-      <c r="M40" t="s">
-        <v>106</v>
+      <c r="M40" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="N40" t="s">
         <v>106</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="O40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P40" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S40" t="s">
+        <v>106</v>
+      </c>
+      <c r="T40" t="s">
+        <v>106</v>
+      </c>
+      <c r="U40" t="s">
+        <v>106</v>
+      </c>
+      <c r="V40" t="s">
+        <v>106</v>
+      </c>
+      <c r="W40" t="s">
+        <v>106</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB40" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="P40" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>106</v>
-      </c>
-      <c r="R40" t="s">
-        <v>106</v>
-      </c>
-      <c r="S40" t="s">
-        <v>106</v>
-      </c>
-      <c r="T40" t="s">
-        <v>106</v>
-      </c>
-      <c r="U40" t="s">
-        <v>106</v>
-      </c>
-      <c r="V40" t="s">
-        <v>106</v>
-      </c>
-      <c r="W40" t="s">
-        <v>106</v>
-      </c>
-      <c r="X40" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>40</v>
+      <c r="A41" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" t="s">
-        <v>106</v>
-      </c>
       <c r="H41" t="s">
         <v>106</v>
       </c>
@@ -4404,8 +4720,8 @@
       <c r="J41" t="s">
         <v>106</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>108</v>
+      <c r="K41" t="s">
+        <v>106</v>
       </c>
       <c r="L41" t="s">
         <v>106</v>
@@ -4416,58 +4732,61 @@
       <c r="N41" t="s">
         <v>106</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" t="s">
+        <v>106</v>
+      </c>
+      <c r="P41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>106</v>
+      </c>
+      <c r="R41" t="s">
+        <v>106</v>
+      </c>
+      <c r="S41" t="s">
+        <v>106</v>
+      </c>
+      <c r="T41" t="s">
+        <v>106</v>
+      </c>
+      <c r="U41" t="s">
+        <v>106</v>
+      </c>
+      <c r="V41" t="s">
+        <v>106</v>
+      </c>
+      <c r="W41" t="s">
+        <v>106</v>
+      </c>
+      <c r="X41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P41" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R41" t="s">
-        <v>106</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="U41" t="s">
-        <v>106</v>
-      </c>
-      <c r="V41" t="s">
-        <v>106</v>
-      </c>
-      <c r="W41" t="s">
-        <v>106</v>
-      </c>
-      <c r="X41" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>107</v>
+      <c r="Y41" t="s">
+        <v>106</v>
       </c>
       <c r="Z41" t="s">
         <v>106</v>
       </c>
-      <c r="AA41" s="2" t="s">
-        <v>107</v>
+      <c r="AA41" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
         <v>106</v>
@@ -4478,8 +4797,8 @@
       <c r="G42" t="s">
         <v>106</v>
       </c>
-      <c r="H42" t="s">
-        <v>106</v>
+      <c r="H42" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="I42" t="s">
         <v>106</v>
@@ -4487,64 +4806,1938 @@
       <c r="J42" t="s">
         <v>106</v>
       </c>
-      <c r="K42" t="s">
-        <v>106</v>
+      <c r="K42" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="L42" t="s">
         <v>106</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" t="s">
+        <v>106</v>
+      </c>
+      <c r="O42" t="s">
+        <v>106</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S42" t="s">
+        <v>106</v>
+      </c>
+      <c r="T42" t="s">
+        <v>106</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V42" t="s">
+        <v>106</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" t="s">
+        <v>106</v>
+      </c>
+      <c r="K43" t="s">
+        <v>106</v>
+      </c>
+      <c r="L43" t="s">
+        <v>106</v>
+      </c>
+      <c r="M43" t="s">
+        <v>106</v>
+      </c>
+      <c r="N43" t="s">
+        <v>106</v>
+      </c>
+      <c r="O43" t="s">
+        <v>106</v>
+      </c>
+      <c r="P43" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>106</v>
+      </c>
+      <c r="R43" t="s">
+        <v>106</v>
+      </c>
+      <c r="S43" t="s">
+        <v>106</v>
+      </c>
+      <c r="T43" t="s">
+        <v>106</v>
+      </c>
+      <c r="U43" t="s">
+        <v>106</v>
+      </c>
+      <c r="V43" t="s">
+        <v>106</v>
+      </c>
+      <c r="W43" t="s">
+        <v>106</v>
+      </c>
+      <c r="X43" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" t="s">
+        <v>106</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" t="s">
+        <v>106</v>
+      </c>
+      <c r="O44" t="s">
+        <v>106</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S44" t="s">
+        <v>106</v>
+      </c>
+      <c r="T44" t="s">
+        <v>106</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V44" t="s">
+        <v>106</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" t="s">
+        <v>106</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L45" t="s">
+        <v>106</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N45" t="s">
+        <v>106</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T45" t="s">
+        <v>106</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46" t="s">
+        <v>106</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N46" t="s">
+        <v>106</v>
+      </c>
+      <c r="O46" t="s">
+        <v>106</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S46" t="s">
+        <v>106</v>
+      </c>
+      <c r="T46" t="s">
+        <v>106</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" t="s">
+        <v>106</v>
+      </c>
+      <c r="K47" t="s">
+        <v>106</v>
+      </c>
+      <c r="L47" t="s">
+        <v>106</v>
+      </c>
+      <c r="M47" t="s">
+        <v>106</v>
+      </c>
+      <c r="N47" t="s">
+        <v>106</v>
+      </c>
+      <c r="O47" t="s">
+        <v>106</v>
+      </c>
+      <c r="P47" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>106</v>
+      </c>
+      <c r="R47" t="s">
+        <v>106</v>
+      </c>
+      <c r="S47" t="s">
+        <v>106</v>
+      </c>
+      <c r="T47" t="s">
+        <v>106</v>
+      </c>
+      <c r="U47" t="s">
+        <v>106</v>
+      </c>
+      <c r="V47" t="s">
+        <v>106</v>
+      </c>
+      <c r="W47" t="s">
+        <v>106</v>
+      </c>
+      <c r="X47" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" t="s">
+        <v>106</v>
+      </c>
+      <c r="I48" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" t="s">
+        <v>106</v>
+      </c>
+      <c r="M48" t="s">
+        <v>106</v>
+      </c>
+      <c r="N48" t="s">
+        <v>106</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N42" t="s">
-        <v>106</v>
-      </c>
-      <c r="O42" t="s">
-        <v>106</v>
-      </c>
-      <c r="P42" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q42" s="2" t="s">
+      <c r="P48" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>106</v>
+      </c>
+      <c r="R48" t="s">
+        <v>106</v>
+      </c>
+      <c r="S48" t="s">
+        <v>106</v>
+      </c>
+      <c r="T48" t="s">
+        <v>106</v>
+      </c>
+      <c r="U48" t="s">
+        <v>106</v>
+      </c>
+      <c r="V48" t="s">
+        <v>106</v>
+      </c>
+      <c r="W48" t="s">
+        <v>106</v>
+      </c>
+      <c r="X48" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R42" t="s">
-        <v>106</v>
-      </c>
-      <c r="S42" t="s">
-        <v>106</v>
-      </c>
-      <c r="T42" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L49" t="s">
+        <v>106</v>
+      </c>
+      <c r="M49" t="s">
+        <v>106</v>
+      </c>
+      <c r="N49" t="s">
+        <v>106</v>
+      </c>
+      <c r="O49" t="s">
+        <v>106</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>106</v>
+      </c>
+      <c r="R49" t="s">
+        <v>106</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U49" t="s">
+        <v>106</v>
+      </c>
+      <c r="V49" t="s">
+        <v>106</v>
+      </c>
+      <c r="W49" t="s">
+        <v>106</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" t="s">
+        <v>106</v>
+      </c>
+      <c r="J50" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50" t="s">
+        <v>106</v>
+      </c>
+      <c r="L50" t="s">
+        <v>106</v>
+      </c>
+      <c r="M50" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50" t="s">
+        <v>106</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P50" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>106</v>
+      </c>
+      <c r="R50" t="s">
+        <v>106</v>
+      </c>
+      <c r="S50" t="s">
+        <v>106</v>
+      </c>
+      <c r="T50" t="s">
+        <v>106</v>
+      </c>
+      <c r="U50" t="s">
+        <v>106</v>
+      </c>
+      <c r="V50" t="s">
+        <v>106</v>
+      </c>
+      <c r="W50" t="s">
+        <v>106</v>
+      </c>
+      <c r="X50" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" t="s">
+        <v>106</v>
+      </c>
+      <c r="I51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51" t="s">
+        <v>106</v>
+      </c>
+      <c r="K51" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51" t="s">
+        <v>106</v>
+      </c>
+      <c r="M51" t="s">
+        <v>106</v>
+      </c>
+      <c r="N51" t="s">
+        <v>106</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>106</v>
+      </c>
+      <c r="R51" t="s">
+        <v>106</v>
+      </c>
+      <c r="S51" t="s">
+        <v>106</v>
+      </c>
+      <c r="T51" t="s">
+        <v>106</v>
+      </c>
+      <c r="U51" t="s">
+        <v>106</v>
+      </c>
+      <c r="V51" t="s">
+        <v>106</v>
+      </c>
+      <c r="W51" t="s">
+        <v>106</v>
+      </c>
+      <c r="X51" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L52" t="s">
+        <v>106</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N52" t="s">
+        <v>106</v>
+      </c>
+      <c r="O52" t="s">
+        <v>106</v>
+      </c>
+      <c r="P52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>106</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S52" t="s">
+        <v>106</v>
+      </c>
+      <c r="T52" t="s">
+        <v>106</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V52" t="s">
+        <v>106</v>
+      </c>
+      <c r="W52" t="s">
+        <v>106</v>
+      </c>
+      <c r="X52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" t="s">
+        <v>106</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M53" t="s">
+        <v>106</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O53" t="s">
+        <v>106</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S53" t="s">
+        <v>106</v>
+      </c>
+      <c r="T53" t="s">
+        <v>106</v>
+      </c>
+      <c r="U53" t="s">
+        <v>106</v>
+      </c>
+      <c r="V53" t="s">
+        <v>106</v>
+      </c>
+      <c r="W53" t="s">
+        <v>106</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L54" t="s">
+        <v>106</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N54" t="s">
+        <v>106</v>
+      </c>
+      <c r="O54" t="s">
+        <v>106</v>
+      </c>
+      <c r="P54" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>106</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S54" t="s">
+        <v>106</v>
+      </c>
+      <c r="T54" t="s">
+        <v>106</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V54" t="s">
+        <v>106</v>
+      </c>
+      <c r="W54" t="s">
+        <v>106</v>
+      </c>
+      <c r="X54" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" t="s">
+        <v>106</v>
+      </c>
+      <c r="K55" t="s">
+        <v>106</v>
+      </c>
+      <c r="L55" t="s">
+        <v>106</v>
+      </c>
+      <c r="M55" t="s">
+        <v>106</v>
+      </c>
+      <c r="N55" t="s">
+        <v>106</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P55" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S55" t="s">
+        <v>106</v>
+      </c>
+      <c r="T55" t="s">
+        <v>106</v>
+      </c>
+      <c r="U55" t="s">
+        <v>106</v>
+      </c>
+      <c r="V55" t="s">
+        <v>106</v>
+      </c>
+      <c r="W55" t="s">
+        <v>106</v>
+      </c>
+      <c r="X55" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
+        <v>106</v>
+      </c>
+      <c r="G56" t="s">
+        <v>106</v>
+      </c>
+      <c r="H56" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="U42" t="s">
-        <v>106</v>
-      </c>
-      <c r="V42" s="2" t="s">
+      <c r="M56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N56" t="s">
+        <v>106</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="W42" t="s">
-        <v>106</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC42" t="s">
+      <c r="W56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" t="s">
         <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" t="s">
+        <v>106</v>
+      </c>
+      <c r="H57" t="s">
+        <v>106</v>
+      </c>
+      <c r="I57" t="s">
+        <v>106</v>
+      </c>
+      <c r="J57" t="s">
+        <v>106</v>
+      </c>
+      <c r="K57" t="s">
+        <v>106</v>
+      </c>
+      <c r="L57" t="s">
+        <v>106</v>
+      </c>
+      <c r="M57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N57" t="s">
+        <v>106</v>
+      </c>
+      <c r="O57" t="s">
+        <v>106</v>
+      </c>
+      <c r="P57" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>106</v>
+      </c>
+      <c r="R57" t="s">
+        <v>106</v>
+      </c>
+      <c r="S57" t="s">
+        <v>106</v>
+      </c>
+      <c r="T57" t="s">
+        <v>106</v>
+      </c>
+      <c r="U57" t="s">
+        <v>106</v>
+      </c>
+      <c r="V57" t="s">
+        <v>106</v>
+      </c>
+      <c r="W57" t="s">
+        <v>106</v>
+      </c>
+      <c r="X57" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58" t="s">
+        <v>106</v>
+      </c>
+      <c r="I58" t="s">
+        <v>106</v>
+      </c>
+      <c r="J58" t="s">
+        <v>106</v>
+      </c>
+      <c r="K58" t="s">
+        <v>106</v>
+      </c>
+      <c r="L58" t="s">
+        <v>106</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N58" t="s">
+        <v>106</v>
+      </c>
+      <c r="O58" t="s">
+        <v>106</v>
+      </c>
+      <c r="P58" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>106</v>
+      </c>
+      <c r="R58" t="s">
+        <v>106</v>
+      </c>
+      <c r="S58" t="s">
+        <v>106</v>
+      </c>
+      <c r="T58" t="s">
+        <v>106</v>
+      </c>
+      <c r="U58" t="s">
+        <v>106</v>
+      </c>
+      <c r="V58" t="s">
+        <v>106</v>
+      </c>
+      <c r="W58" t="s">
+        <v>106</v>
+      </c>
+      <c r="X58" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" t="s">
+        <v>106</v>
+      </c>
+      <c r="I59" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" t="s">
+        <v>106</v>
+      </c>
+      <c r="K59" t="s">
+        <v>106</v>
+      </c>
+      <c r="L59" t="s">
+        <v>106</v>
+      </c>
+      <c r="M59" t="s">
+        <v>106</v>
+      </c>
+      <c r="N59" t="s">
+        <v>106</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P59" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>106</v>
+      </c>
+      <c r="R59" t="s">
+        <v>106</v>
+      </c>
+      <c r="S59" t="s">
+        <v>106</v>
+      </c>
+      <c r="T59" t="s">
+        <v>106</v>
+      </c>
+      <c r="U59" t="s">
+        <v>106</v>
+      </c>
+      <c r="V59" t="s">
+        <v>106</v>
+      </c>
+      <c r="W59" t="s">
+        <v>106</v>
+      </c>
+      <c r="X59" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" t="s">
+        <v>106</v>
+      </c>
+      <c r="J60" t="s">
+        <v>106</v>
+      </c>
+      <c r="K60" t="s">
+        <v>106</v>
+      </c>
+      <c r="L60" t="s">
+        <v>106</v>
+      </c>
+      <c r="M60" t="s">
+        <v>106</v>
+      </c>
+      <c r="N60" t="s">
+        <v>106</v>
+      </c>
+      <c r="O60" t="s">
+        <v>106</v>
+      </c>
+      <c r="P60" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>106</v>
+      </c>
+      <c r="R60" t="s">
+        <v>106</v>
+      </c>
+      <c r="S60" t="s">
+        <v>106</v>
+      </c>
+      <c r="T60" t="s">
+        <v>106</v>
+      </c>
+      <c r="U60" t="s">
+        <v>106</v>
+      </c>
+      <c r="V60" t="s">
+        <v>106</v>
+      </c>
+      <c r="W60" t="s">
+        <v>106</v>
+      </c>
+      <c r="X60" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H61" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J61" t="s">
+        <v>106</v>
+      </c>
+      <c r="K61" t="s">
+        <v>106</v>
+      </c>
+      <c r="L61" t="s">
+        <v>106</v>
+      </c>
+      <c r="M61" t="s">
+        <v>106</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O61" t="s">
+        <v>106</v>
+      </c>
+      <c r="P61" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>106</v>
+      </c>
+      <c r="R61" t="s">
+        <v>106</v>
+      </c>
+      <c r="S61" t="s">
+        <v>106</v>
+      </c>
+      <c r="T61" t="s">
+        <v>106</v>
+      </c>
+      <c r="U61" t="s">
+        <v>106</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W61" t="s">
+        <v>106</v>
+      </c>
+      <c r="X61" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62" t="s">
+        <v>106</v>
+      </c>
+      <c r="H62" t="s">
+        <v>106</v>
+      </c>
+      <c r="I62" t="s">
+        <v>106</v>
+      </c>
+      <c r="J62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K62" t="s">
+        <v>106</v>
+      </c>
+      <c r="L62" t="s">
+        <v>106</v>
+      </c>
+      <c r="M62" t="s">
+        <v>106</v>
+      </c>
+      <c r="N62" t="s">
+        <v>106</v>
+      </c>
+      <c r="O62" t="s">
+        <v>106</v>
+      </c>
+      <c r="P62" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>106</v>
+      </c>
+      <c r="R62" t="s">
+        <v>106</v>
+      </c>
+      <c r="S62" t="s">
+        <v>106</v>
+      </c>
+      <c r="T62" t="s">
+        <v>106</v>
+      </c>
+      <c r="U62" t="s">
+        <v>106</v>
+      </c>
+      <c r="V62" t="s">
+        <v>106</v>
+      </c>
+      <c r="W62" t="s">
+        <v>106</v>
+      </c>
+      <c r="X62" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" t="s">
+        <v>106</v>
+      </c>
+      <c r="G63" t="s">
+        <v>106</v>
+      </c>
+      <c r="H63" t="s">
+        <v>106</v>
+      </c>
+      <c r="I63" t="s">
+        <v>106</v>
+      </c>
+      <c r="J63" t="s">
+        <v>106</v>
+      </c>
+      <c r="K63" t="s">
+        <v>106</v>
+      </c>
+      <c r="L63" t="s">
+        <v>106</v>
+      </c>
+      <c r="M63" t="s">
+        <v>106</v>
+      </c>
+      <c r="N63" t="s">
+        <v>106</v>
+      </c>
+      <c r="O63" t="s">
+        <v>106</v>
+      </c>
+      <c r="P63" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>106</v>
+      </c>
+      <c r="R63" t="s">
+        <v>106</v>
+      </c>
+      <c r="S63" t="s">
+        <v>106</v>
+      </c>
+      <c r="T63" t="s">
+        <v>106</v>
+      </c>
+      <c r="U63" t="s">
+        <v>106</v>
+      </c>
+      <c r="V63" t="s">
+        <v>106</v>
+      </c>
+      <c r="W63" t="s">
+        <v>106</v>
+      </c>
+      <c r="X63" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H64" t="s">
+        <v>106</v>
+      </c>
+      <c r="I64" t="s">
+        <v>106</v>
+      </c>
+      <c r="J64" t="s">
+        <v>106</v>
+      </c>
+      <c r="K64" t="s">
+        <v>106</v>
+      </c>
+      <c r="L64" t="s">
+        <v>106</v>
+      </c>
+      <c r="M64" t="s">
+        <v>106</v>
+      </c>
+      <c r="N64" t="s">
+        <v>106</v>
+      </c>
+      <c r="O64" t="s">
+        <v>106</v>
+      </c>
+      <c r="P64" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>106</v>
+      </c>
+      <c r="R64" t="s">
+        <v>106</v>
+      </c>
+      <c r="S64" t="s">
+        <v>106</v>
+      </c>
+      <c r="T64" t="s">
+        <v>106</v>
+      </c>
+      <c r="U64" t="s">
+        <v>106</v>
+      </c>
+      <c r="V64" t="s">
+        <v>106</v>
+      </c>
+      <c r="W64" t="s">
+        <v>106</v>
+      </c>
+      <c r="X64" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" t="s">
+        <v>106</v>
+      </c>
+      <c r="G65" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" t="s">
+        <v>106</v>
+      </c>
+      <c r="I65" t="s">
+        <v>106</v>
+      </c>
+      <c r="J65" t="s">
+        <v>149</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V65" t="s">
+        <v>106</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <autoFilter ref="A1:AC1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC65">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A66:A1048576 A1:A42">
+    <cfRule type="duplicateValues" dxfId="20" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="19" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="18" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="17" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="duplicateValues" dxfId="15" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:A55">
+    <cfRule type="duplicateValues" dxfId="14" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:A59">
+    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="duplicateValues" dxfId="11" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A1048576 A1:A63">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:A59">
+    <cfRule type="duplicateValues" dxfId="4" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:A63">
+    <cfRule type="duplicateValues" dxfId="3" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A65">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A65">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A65">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
